--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -282,7 +282,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+         and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -434,7 +436,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -604,6 +606,9 @@
     <t>Whether the dispenser can substitute the prescribed medicine/package by another that is deemed equivalent, for medical or logistical reasons. By default, substitution is authorized.</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -651,10 +656,153 @@
 </t>
   </si>
   <si>
+    <t>Whether substitution is allowed or not</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed-epr/ValueSet/ch-emed-epr-substance-admin-substitution-code</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="N"/&gt;
+  &lt;display value="none"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:parentDocument</t>
+  </si>
+  <si>
+    <t>parentDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan}
+</t>
+  </si>
+  <si>
+    <t>CH EMED Extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument</t>
+  </si>
+  <si>
+    <t>authorDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.url</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
     <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -664,132 +812,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Whether substitution is allowed or not</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:substitution.value[x]:valueCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:parentDocument</t>
-  </si>
-  <si>
-    <t>parentDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan}
-</t>
-  </si>
-  <si>
-    <t>CH EMED Extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument</t>
-  </si>
-  <si>
-    <t>authorDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
-</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.url</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference</t>
   </si>
   <si>
@@ -807,19 +829,6 @@
   </si>
   <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension:time</t>
@@ -1213,7 +1222,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1348,10 +1357,6 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
-</t>
-  </si>
-  <si>
     <t>The author of the medical decision, see also 'Guidance - Authorship'</t>
   </si>
   <si>
@@ -1523,14 +1528,14 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1540,7 +1545,7 @@
 </t>
   </si>
   <si>
-    <t>refer dosageInstruction mapping</t>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1553,19 +1558,13 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationStatement / MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
   </si>
   <si>
@@ -1576,7 +1575,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1892,45 +1891,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="223.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="119.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.39453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3905,7 +3904,7 @@
         <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3965,7 +3964,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>116</v>
@@ -3974,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3985,10 +3984,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4097,10 +4096,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4209,10 +4208,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4238,13 +4237,13 @@
         <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4252,7 +4251,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4294,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>89</v>
@@ -4323,10 +4322,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4349,13 +4348,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4382,29 +4381,29 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4433,20 +4432,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4461,13 +4458,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4494,11 +4491,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4516,7 +4515,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4528,13 +4527,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4545,21 +4544,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4571,15 +4570,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4616,31 +4617,31 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4657,10 +4658,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4680,19 +4681,23 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -4728,19 +4733,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4752,27 +4757,27 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4780,10 +4785,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4795,19 +4800,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4856,13 +4861,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4874,29 +4879,31 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4908,23 +4915,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4972,49 +4975,49 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5029,13 +5032,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5104,7 +5107,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5115,14 +5118,12 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5143,13 +5144,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5200,25 +5201,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5229,10 +5230,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5243,7 +5244,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5255,13 +5256,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5300,37 +5301,37 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5341,10 +5342,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5352,10 +5353,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5367,22 +5368,24 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>78</v>
@@ -5412,37 +5415,37 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5453,10 +5456,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5479,24 +5482,22 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
@@ -5526,22 +5527,20 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>89</v>
@@ -5550,7 +5549,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5567,12 +5566,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5593,13 +5594,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5638,17 +5639,19 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5677,20 +5680,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5705,13 +5706,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5762,7 +5763,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5774,13 +5775,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5791,21 +5792,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5817,15 +5818,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5862,31 +5865,31 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5903,21 +5906,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5929,17 +5934,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5976,16 +5979,16 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>115</v>
@@ -6006,7 +6009,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6017,20 +6020,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -6042,18 +6043,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6102,25 +6105,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6131,10 +6134,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6142,7 +6145,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6157,16 +6160,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6192,13 +6195,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6216,7 +6219,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6225,7 +6228,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6245,10 +6248,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6271,16 +6274,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6306,13 +6309,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6330,7 +6333,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6348,7 +6351,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6359,10 +6362,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6385,16 +6388,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6444,7 +6447,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6462,7 +6465,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6473,10 +6476,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6487,28 +6490,28 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6558,25 +6561,25 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6587,10 +6590,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6598,31 +6601,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6672,7 +6675,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6684,16 +6687,16 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6701,10 +6704,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6712,7 +6715,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6724,20 +6727,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6786,28 +6787,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6815,10 +6816,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6829,7 +6830,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6841,13 +6842,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6886,37 +6887,37 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6927,10 +6928,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6941,28 +6942,32 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6986,63 +6991,63 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7059,25 +7064,25 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7102,13 +7107,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7126,7 +7131,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7144,21 +7149,21 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>176</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7166,7 +7171,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7181,32 +7186,32 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7218,13 +7223,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7242,7 +7247,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7260,21 +7265,21 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7297,32 +7302,30 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7358,7 +7361,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7376,21 +7379,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7398,7 +7401,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7413,17 +7416,15 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7436,7 +7437,7 @@
         <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>78</v>
@@ -7472,7 +7473,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7490,21 +7491,21 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7527,15 +7528,17 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7584,7 +7587,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7602,21 +7605,21 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7627,7 +7630,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7639,18 +7642,20 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7698,13 +7703,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7713,24 +7718,24 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7741,7 +7746,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7753,19 +7758,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7814,7 +7817,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7829,10 +7832,10 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7843,10 +7846,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7854,33 +7857,33 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>78</v>
@@ -7904,13 +7907,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7928,13 +7931,13 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
@@ -7943,13 +7946,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7957,10 +7960,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7968,31 +7971,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8003,7 +8006,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8018,13 +8021,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8042,13 +8045,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8057,13 +8060,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8071,10 +8074,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8085,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8094,10 +8097,10 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>110</v>
@@ -8105,9 +8108,7 @@
       <c r="M55" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8132,13 +8133,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8156,13 +8157,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8171,13 +8172,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8185,10 +8186,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8196,7 +8197,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8211,15 +8212,17 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8244,34 +8247,32 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -8283,13 +8284,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8297,18 +8298,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8323,16 +8326,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8370,17 +8373,19 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>89</v>
@@ -8395,13 +8400,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8409,20 +8414,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
@@ -8437,17 +8440,15 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8496,7 +8497,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>89</v>
@@ -8511,24 +8512,24 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8536,7 +8537,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
@@ -8548,16 +8549,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
+        <v>111</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8608,10 +8609,10 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>106</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>89</v>
@@ -8620,27 +8621,27 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8651,7 +8652,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8663,7 +8664,7 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>110</v>
@@ -8708,37 +8709,37 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8749,10 +8750,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8760,10 +8761,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8772,18 +8773,20 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8820,37 +8823,37 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8861,10 +8864,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8872,7 +8875,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -8887,16 +8890,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8922,13 +8925,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8946,7 +8949,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8955,7 +8958,7 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
@@ -8975,10 +8978,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9001,16 +9004,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9036,13 +9039,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9060,7 +9063,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9078,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9089,10 +9092,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9115,16 +9118,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9174,7 +9177,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9192,7 +9195,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9203,10 +9206,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9229,16 +9232,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9288,7 +9291,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9303,10 +9306,10 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9317,10 +9320,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9343,16 +9346,16 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9402,7 +9405,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9417,13 +9420,13 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9431,10 +9434,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9442,7 +9445,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>89</v>
@@ -9457,17 +9460,15 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9516,7 +9517,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9531,13 +9532,13 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9545,10 +9546,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9568,16 +9569,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9628,7 +9629,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9646,10 +9647,10 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9657,10 +9658,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9668,7 +9669,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -9683,13 +9684,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>105</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9740,7 +9741,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>106</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9752,16 +9753,16 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9769,21 +9770,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9795,15 +9796,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9840,31 +9843,31 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9881,21 +9884,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9904,19 +9907,19 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9954,37 +9957,37 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10006,7 +10009,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>89</v>
@@ -10021,16 +10024,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10056,13 +10059,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10080,7 +10083,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10089,7 +10092,7 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
@@ -10109,10 +10112,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10135,16 +10138,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10170,13 +10173,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10194,7 +10197,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10212,7 +10215,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10223,10 +10226,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10249,16 +10252,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10308,7 +10311,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10326,7 +10329,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10337,10 +10340,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10351,7 +10354,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10360,19 +10363,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>436</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10422,13 +10425,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10440,7 +10443,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>176</v>
+        <v>437</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10451,10 +10454,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10477,16 +10480,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>436</v>
+        <v>200</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>342</v>
+        <v>439</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>111</v>
+        <v>440</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10512,13 +10515,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10536,7 +10539,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10551,13 +10554,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10565,10 +10568,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10591,17 +10594,15 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>439</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10626,13 +10627,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10650,28 +10651,28 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10679,10 +10680,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10693,7 +10694,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10705,13 +10706,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10750,37 +10751,37 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10791,10 +10792,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10814,19 +10815,23 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10862,19 +10867,19 @@
         <v>78</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10886,27 +10891,27 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10914,10 +10919,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10929,19 +10934,19 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>451</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -10990,13 +10995,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11008,21 +11013,21 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11030,10 +11035,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11042,23 +11047,21 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>103</v>
+        <v>453</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11106,13 +11109,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>229</v>
+        <v>452</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11121,24 +11124,24 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>230</v>
+        <v>455</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11161,17 +11164,15 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11220,7 +11221,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11235,13 +11236,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11249,10 +11250,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11263,7 +11264,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11275,13 +11276,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>457</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>458</v>
+        <v>110</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11332,25 +11333,25 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11361,10 +11362,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11375,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11387,7 +11388,7 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>110</v>
@@ -11432,37 +11433,37 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11473,10 +11474,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11487,7 +11488,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11496,18 +11497,20 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>109</v>
+        <v>465</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>110</v>
+        <v>466</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11544,51 +11547,51 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>115</v>
+        <v>468</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11611,17 +11614,15 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>466</v>
+        <v>110</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N86" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -11670,7 +11671,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11688,7 +11689,7 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11699,10 +11700,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11710,7 +11711,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -11725,13 +11726,13 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>110</v>
+        <v>475</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>111</v>
+        <v>476</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11782,10 +11783,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -11800,7 +11801,7 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11811,10 +11812,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11825,7 +11826,7 @@
         <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -11834,18 +11835,20 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -11882,25 +11885,23 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -11912,23 +11913,25 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>89</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -11949,10 +11952,10 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>482</v>
@@ -11996,14 +11999,16 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AC89" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>479</v>
@@ -12018,7 +12023,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>490</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12035,23 +12040,23 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>479</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12063,13 +12068,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>483</v>
@@ -12134,134 +12139,18 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,8 +282,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -429,7 +429,7 @@
     <t>MedicationStatement.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -461,7 +461,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -479,7 +479,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -523,7 +523,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -798,26 +798,6 @@
     <t>MedicationStatement.extension:authorDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
 </t>
   </si>
@@ -825,13 +805,13 @@
     <t>Author of the content</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension:time</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].extension:time</t>
   </si>
   <si>
     <t>time</t>
@@ -844,10 +824,10 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.reference</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].reference</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].reference</t>
@@ -869,7 +849,7 @@
 </t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.type</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].type</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].type</t>
@@ -888,13 +868,13 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.identifier</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].identifier</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].identifier</t>
@@ -922,7 +902,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.display</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].display</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].display</t>
@@ -943,7 +923,7 @@
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -952,6 +932,10 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
     <t>MedicationStatement Identifier</t>
   </si>
   <si>
@@ -1015,7 +999,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1057,10 +1041,10 @@
     <t>MedicationStatement.identifier.value</t>
   </si>
   <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>A UUID expressed as a URN according to RFC 4122 and RFC 3986.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
@@ -1070,6 +1054,10 @@
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uuid-format:The value SHALL start with 'urn:uuid:' followed by a valid UUID. {matches('^urn:uuid:[0-9a-fA-F]{8}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{12}$')}</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1119,7 +1107,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1135,7 +1123,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1195,7 +1183,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -1210,7 +1198,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -1235,6 +1223,13 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -1303,7 +1298,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1390,7 +1385,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1413,7 +1408,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1443,7 +1438,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1481,7 +1476,7 @@
     <t>MedicationStatement.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1535,7 +1530,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1545,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>refer dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1559,10 +1554,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
@@ -1882,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1891,45 +1882,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="83.82421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5527,14 +5518,16 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>205</v>
@@ -5566,20 +5559,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5594,13 +5585,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5651,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5663,13 +5654,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5680,21 +5671,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5706,15 +5697,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5751,31 +5744,31 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5792,21 +5785,23 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5818,17 +5813,15 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5865,16 +5858,16 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>115</v>
@@ -5895,7 +5888,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5906,20 +5899,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -5931,18 +5922,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5991,25 +5984,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6020,10 +6013,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6031,7 +6024,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -6046,16 +6039,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6081,13 +6074,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6105,7 +6098,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6114,7 +6107,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -6134,10 +6127,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6160,16 +6153,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6195,13 +6188,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6219,7 +6212,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6237,7 +6230,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6248,10 +6241,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6274,16 +6267,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6333,7 +6326,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6351,7 +6344,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6365,7 +6358,7 @@
         <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6376,28 +6369,28 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6447,25 +6440,25 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6476,10 +6469,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6487,28 +6480,28 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J41" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>291</v>
@@ -6561,7 +6554,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6573,16 +6566,16 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6590,10 +6583,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6601,7 +6594,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6613,20 +6606,18 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6675,28 +6666,28 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6704,10 +6695,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6718,7 +6709,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6730,13 +6721,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6775,37 +6766,37 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6816,10 +6807,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6830,28 +6821,32 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6875,63 +6870,63 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6948,25 +6943,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6991,13 +6986,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7015,7 +7010,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7033,21 +7028,21 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>176</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7055,7 +7050,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7070,32 +7065,32 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7107,13 +7102,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7131,7 +7126,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7149,21 +7144,21 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7186,32 +7181,30 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7247,7 +7240,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7259,27 +7252,27 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7287,7 +7280,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7302,17 +7295,15 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7325,7 +7316,7 @@
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7361,7 +7352,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7379,21 +7370,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7416,15 +7407,17 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7473,7 +7466,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7491,21 +7484,21 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7516,7 +7509,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7528,18 +7521,20 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7587,13 +7582,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7602,24 +7597,24 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7630,7 +7625,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7642,19 +7637,17 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7703,7 +7696,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7718,10 +7711,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7732,10 +7725,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7743,33 +7736,33 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7778,7 +7771,7 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>78</v>
@@ -7793,13 +7786,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7817,13 +7810,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7832,13 +7825,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7846,10 +7839,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7857,31 +7850,31 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7892,7 +7885,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>78</v>
@@ -7907,37 +7900,37 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
@@ -7946,13 +7939,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7960,10 +7953,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7974,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7983,7 +7976,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>200</v>
@@ -7994,9 +7987,7 @@
       <c r="M54" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8021,37 +8012,37 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8060,13 +8051,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8074,10 +8065,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8085,7 +8076,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8100,15 +8091,17 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8133,34 +8126,32 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8172,13 +8163,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8186,18 +8177,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8212,16 +8205,16 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8259,17 +8252,19 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8284,13 +8279,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8298,20 +8293,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8326,17 +8319,15 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8385,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>89</v>
@@ -8400,24 +8391,24 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8425,7 +8416,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
@@ -8437,16 +8428,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8497,10 +8488,10 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>89</v>
@@ -8509,27 +8500,27 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>107</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8540,7 +8531,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8552,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>110</v>
@@ -8597,37 +8588,37 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8638,10 +8629,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8649,10 +8640,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8661,18 +8652,20 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8709,37 +8702,37 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8750,10 +8743,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8761,7 +8754,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -8776,16 +8769,16 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8811,13 +8804,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8835,7 +8828,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8844,7 +8837,7 @@
         <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>101</v>
@@ -8864,10 +8857,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8890,16 +8883,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8925,13 +8918,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8949,7 +8942,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8967,7 +8960,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8978,10 +8971,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9004,16 +8997,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9063,7 +9056,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9081,7 +9074,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9092,10 +9085,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9118,16 +9111,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9177,7 +9170,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9192,10 +9185,10 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>176</v>
+        <v>408</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9206,10 +9199,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9232,16 +9225,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9291,7 +9284,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9306,13 +9299,13 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9320,10 +9313,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9331,7 +9324,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9346,17 +9339,15 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9405,7 +9396,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9420,13 +9411,13 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9434,10 +9425,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9457,16 +9448,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9517,7 +9508,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9535,10 +9526,10 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9546,10 +9537,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9557,7 +9548,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>89</v>
@@ -9572,13 +9563,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>105</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9629,7 +9620,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9641,16 +9632,16 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9658,21 +9649,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9684,15 +9675,17 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9729,31 +9722,31 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9770,21 +9763,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9793,19 +9786,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9843,37 +9836,37 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9884,10 +9877,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9895,7 +9888,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -9910,16 +9903,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9945,13 +9938,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -9969,7 +9962,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -9978,7 +9971,7 @@
         <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>101</v>
@@ -9998,10 +9991,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10024,16 +10017,16 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10059,13 +10052,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10083,7 +10076,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10101,7 +10094,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10112,10 +10105,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10138,16 +10131,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10197,7 +10190,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10215,7 +10208,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10226,10 +10219,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10240,7 +10233,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10249,19 +10242,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10311,13 +10304,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10329,7 +10322,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10340,10 +10333,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10366,16 +10359,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>436</v>
+        <v>200</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10401,13 +10394,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10425,7 +10418,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10440,13 +10433,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10454,10 +10447,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10468,7 +10461,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10480,17 +10473,15 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>104</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10515,13 +10506,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10539,28 +10530,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10568,10 +10559,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10582,7 +10573,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10594,13 +10585,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10639,37 +10630,37 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10680,10 +10671,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10703,19 +10694,23 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10751,19 +10746,19 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10775,27 +10770,27 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10803,10 +10798,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10818,19 +10813,19 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>216</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -10879,13 +10874,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -10897,13 +10892,13 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80">
@@ -10919,10 +10914,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10931,23 +10926,21 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>451</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -10995,13 +10988,13 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
@@ -11010,24 +11003,24 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>231</v>
+        <v>453</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11050,17 +11043,15 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>343</v>
+        <v>456</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11109,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11124,13 +11115,13 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11138,10 +11129,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11152,7 +11143,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11164,13 +11155,13 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>457</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>458</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11221,25 +11212,25 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11250,10 +11241,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11264,7 +11255,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11276,7 +11267,7 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>110</v>
@@ -11321,37 +11312,37 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11362,10 +11353,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11376,7 +11367,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11385,18 +11376,20 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>110</v>
+        <v>464</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11433,51 +11426,51 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>115</v>
+        <v>466</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11500,17 +11493,15 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>466</v>
+        <v>110</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N85" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11559,7 +11550,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11577,7 +11568,7 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -11588,10 +11579,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11599,7 +11590,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>89</v>
@@ -11614,13 +11605,13 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>473</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
+        <v>474</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11671,10 +11662,10 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>89</v>
@@ -11689,7 +11680,7 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11700,10 +11691,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11714,7 +11705,7 @@
         <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11723,18 +11714,20 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -11771,25 +11764,23 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>477</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
@@ -11801,23 +11792,25 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>78</v>
       </c>
@@ -11826,7 +11819,7 @@
         <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -11838,16 +11831,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11885,17 +11878,19 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -11913,7 +11908,7 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -11924,23 +11919,23 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -11952,16 +11947,16 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12011,7 +12006,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12023,134 +12018,18 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>490</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
         <v>78</v>
       </c>
     </row>
